--- a/results/01_tables/worst_symptom_by_season.xlsx
+++ b/results/01_tables/worst_symptom_by_season.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\tinnitus-country\results\01_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ADAC8E-B77F-4CBF-987D-535ED7F2DB89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E42F6A-2D5C-45AE-B168-699DD054CF0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C10D070-6E65-426B-A0C6-BACDD9DDE587}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,6 +262,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -271,29 +295,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,7 +648,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -659,7 +665,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -674,7 +680,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -689,7 +695,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,7 +710,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -721,7 +727,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -736,7 +742,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,7 +757,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -766,7 +772,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -783,7 +789,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,7 +804,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,7 +819,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,7 +834,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -845,7 +851,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,7 +866,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,7 +881,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,7 +896,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -907,7 +913,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -922,7 +928,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,7 +943,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,207 +991,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D393987-63FC-4295-9727-58AF44C2BA7E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.109375" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="45.109375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="7.44140625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>6.3E-2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>0.129</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.115</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0.124</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>0.113</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>0.112</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>0.113</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>0.106</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>0.123</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>0.09</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>0.20300000000000001</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>0.17799999999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>0.10299999999999999</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>0.126</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>0.115</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
-        <f>SUM(B2:B10)</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
-        <f>SUM(C2:C10)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <f>SUM(E2:E10)</f>
-        <v>1</v>
-      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1195,16 +1212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>